--- a/Analytics/BIGFIVE/shirts_bf.xlsx
+++ b/Analytics/BIGFIVE/shirts_bf.xlsx
@@ -38,13 +38,13 @@
     <t>I1</t>
   </si>
   <si>
-    <t>E0</t>
+    <t>F1</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>E0</t>
   </si>
   <si>
     <t>SP1</t>
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>23998.0</v>
+        <v>7125.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>20627.0</v>
+        <v>5574.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>17441.0</v>
+        <v>4559.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>13868.0</v>
+        <v>4027.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>13755.0</v>
+        <v>3757.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/BIGFIVE/shirts_bf.xlsx
+++ b/Analytics/BIGFIVE/shirts_bf.xlsx
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>7125.0</v>
+        <v>10221.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>5574.0</v>
+        <v>7967.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>4559.0</v>
+        <v>6932.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>4027.0</v>
+        <v>6864.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>3757.0</v>
+        <v>5663.0</v>
       </c>
     </row>
   </sheetData>
